--- a/PJT_Info/Chuck_Testcase.xlsx
+++ b/PJT_Info/Chuck_Testcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\drive-download-20201111T000227Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alxmf\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5789F9-744B-4111-A343-E38DD2369B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="230">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,13 +917,49 @@
   </si>
   <si>
     <t>version : 0.0.1 // 작성일 2020.11.11 // by. 김현대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 사진 업로드(로컬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 사진 업로드(챗봇)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 페이지에서 사진이 정상적으로 업로드 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇을 이용해 클라우드 저장소로 업로드 된 사진이 정상적으로 등록된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇을 이용해 클라우드 저장소로 업로드 된 사진을 선택하고 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 페이지에서 사진을 업로드 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇을 이용해 사진을 업로드한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드 저장소에 사진이 업로드 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,16 +1021,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,104 +1346,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="E11" s="7"/>
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="E12" s="7"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="E13" s="7"/>
+    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="E14" s="7"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
       <c r="H19" s="2"/>
     </row>
   </sheetData>
@@ -1433,66 +1462,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1547,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
+    <row r="5" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1535,8 +1564,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1552,9 +1581,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
-        <v>4</v>
+    <row r="7" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>86</v>
@@ -1569,8 +1598,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1583,12 +1614,12 @@
       <c r="E8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10">
+    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1603,13 +1634,13 @@
       <c r="E9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
-        <v>9</v>
+    <row r="10" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -1624,21 +1655,23 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10">
-        <v>10</v>
+    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
@@ -1656,9 +1689,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10">
-        <v>11</v>
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
@@ -1673,9 +1706,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10">
-        <v>12</v>
+    <row r="14" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -1690,9 +1723,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10">
-        <v>13</v>
+    <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
@@ -1707,9 +1740,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10">
-        <v>14</v>
+    <row r="16" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -1721,9 +1754,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10">
-        <v>15</v>
+    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>30</v>
@@ -1735,9 +1768,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10">
-        <v>16</v>
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>31</v>
@@ -1749,9 +1782,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10">
-        <v>17</v>
+    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>32</v>
@@ -1763,9 +1796,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10">
-        <v>18</v>
+    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>97</v>
@@ -1780,9 +1813,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="10">
-        <v>19</v>
+    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
@@ -1794,8 +1827,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>57</v>
       </c>
@@ -1806,8 +1841,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1821,8 +1858,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10">
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1838,8 +1875,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="10">
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1852,8 +1889,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="10">
+    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1866,8 +1903,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="10">
+    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1880,8 +1917,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="10">
+    <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1894,8 +1931,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="10">
+    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1908,8 +1945,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="10">
+    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1925,8 +1962,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="10">
+    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1935,12 +1972,12 @@
       <c r="E31" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="10">
+    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1953,8 +1990,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="10">
+    <row r="33" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1967,8 +2004,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="10">
+    <row r="34" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1981,8 +2018,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="10">
+    <row r="35" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1995,8 +2032,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10">
+    <row r="36" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2012,8 +2049,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="10">
+    <row r="37" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
         <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2026,8 +2063,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="10">
+    <row r="38" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2040,8 +2077,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="10">
+    <row r="39" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>35</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2054,8 +2091,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10">
+    <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>36</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2068,8 +2105,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="10">
+    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
         <v>37</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2082,8 +2119,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="10">
+    <row r="42" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
         <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2096,8 +2133,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="10">
+    <row r="43" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2110,517 +2147,563 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="10">
+    <row r="44" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
         <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>42</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
         <v>43</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="C47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="10">
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>44</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="10">
-        <v>42</v>
-      </c>
-      <c r="C46" s="5" t="s">
+    <row r="49" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="10">
-        <v>43</v>
-      </c>
-      <c r="C47" s="5" t="s">
+    <row r="50" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>46</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="10">
-        <v>44</v>
-      </c>
-      <c r="C48" s="5" t="s">
+    <row r="51" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>47</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="10">
-        <v>45</v>
-      </c>
-      <c r="C49" s="5" t="s">
+    <row r="52" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="10">
-        <v>46</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="10"/>
-      <c r="C51" s="5" t="s">
+    <row r="54" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>50</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="10">
-        <v>47</v>
-      </c>
-      <c r="C52" s="5" t="s">
+    <row r="55" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>51</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="10">
-        <v>48</v>
-      </c>
-      <c r="C53" s="5" t="s">
+    <row r="56" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>52</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="10">
-        <v>49</v>
-      </c>
-      <c r="C54" s="5" t="s">
+    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>53</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="10">
-        <v>50</v>
-      </c>
-      <c r="C55" s="5" t="s">
+    <row r="58" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>54</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="10">
-        <v>51</v>
-      </c>
-      <c r="C56" s="5" t="s">
+    <row r="59" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>55</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="10">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5" t="s">
+    <row r="60" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>56</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="10"/>
-      <c r="C58" s="5" t="s">
+    <row r="61" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>57</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="10">
-        <v>53</v>
-      </c>
-      <c r="C59" s="5" t="s">
+    <row r="62" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>58</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="10">
-        <v>54</v>
-      </c>
-      <c r="C60" s="5" t="s">
+    <row r="63" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>59</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="10">
-        <v>55</v>
-      </c>
-      <c r="C61" s="5" t="s">
+    <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>60</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="10">
-        <v>56</v>
-      </c>
-      <c r="C62" s="5" t="s">
+    <row r="65" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>61</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="10">
-        <v>57</v>
-      </c>
-      <c r="C63" s="5" t="s">
+    <row r="66" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>62</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="10">
-        <v>58</v>
-      </c>
-      <c r="C64" s="5" t="s">
+    <row r="67" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>63</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="10">
-        <v>59</v>
-      </c>
-      <c r="C65" s="5" t="s">
+    <row r="68" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>64</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="10">
-        <v>60</v>
-      </c>
-      <c r="C66" s="5" t="s">
+    <row r="69" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>65</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="10">
-        <v>61</v>
-      </c>
-      <c r="C67" s="5" t="s">
+    <row r="70" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>66</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="10">
-        <v>62</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="71" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>67</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="10">
-        <v>63</v>
-      </c>
-      <c r="C69" s="5" t="s">
+    <row r="72" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>68</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="10">
-        <v>64</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="10">
-        <v>65</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="10">
-        <v>66</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>69</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>70</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>71</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="10">
-        <v>67</v>
-      </c>
-      <c r="C73" s="5" t="s">
+    <row r="76" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>72</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="10">
-        <v>68</v>
-      </c>
-      <c r="C74" s="5" t="s">
+    <row r="77" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>73</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D77" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="10">
-        <v>69</v>
-      </c>
-      <c r="C75" s="5" t="s">
+    <row r="78" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>74</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H2"/>
@@ -2633,14 +2716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
